--- a/topic_label_example.xlsx
+++ b/topic_label_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasimonetti/Documents/Dottorato/Systematic_Literature_review/Reviews/REVIEW_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CD868-E0CE-BE4B-8CEA-46788DE4F9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1878FE37-3010-7C45-9CF4-B0B202ED5262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>International propensity</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>topic_1</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>topic_29</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,12 +595,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>

--- a/topic_label_example.xlsx
+++ b/topic_label_example.xlsx
@@ -5,114 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasimonetti/Documents/Dottorato/Systematic_Literature_review/Reviews/REVIEW_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasimonetti/Documents/SLR-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1878FE37-3010-7C45-9CF4-B0B202ED5262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7B5E8D-C1EB-9E4C-B365-FF3240E03375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="2220" windowWidth="18280" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$459</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$458</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>Tehcnology and digitaliaztion</t>
-  </si>
-  <si>
-    <t>Personal charateristics</t>
-  </si>
-  <si>
-    <t>Female and student entrepreneuship</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>opportunity exploitation</t>
-  </si>
-  <si>
-    <t>otptimisms and self efficacy</t>
-  </si>
-  <si>
-    <t>Climate changes</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>adaptation</t>
-  </si>
-  <si>
-    <t>cross-fertilization</t>
-  </si>
-  <si>
-    <t>Workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualitative and quantiative methodological approaches </t>
-  </si>
-  <si>
-    <t>quantitiative studies and interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beliefs and behaviors </t>
-  </si>
-  <si>
-    <t>Extrem events</t>
-  </si>
-  <si>
-    <t>covid and exogenous shocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk and recovery in the supply chain </t>
-  </si>
-  <si>
-    <t>Banking and Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrepreneurial entry and foreign investment </t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>Resources acquisition and crowdfunding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actions in the aftermath of a crisis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">engaged learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustainable development </t>
-  </si>
-  <si>
-    <t>leadership</t>
-  </si>
-  <si>
-    <t>Perfomance</t>
-  </si>
-  <si>
-    <t>International propensity</t>
-  </si>
-  <si>
-    <t>topic_1</t>
   </si>
   <si>
     <t>topic_2</t>
@@ -127,76 +40,19 @@
     <t>topic_5</t>
   </si>
   <si>
-    <t>topic_6</t>
+    <t>label</t>
   </si>
   <si>
-    <t>topic_7</t>
+    <t xml:space="preserve">quantiative methodological approaches </t>
   </si>
   <si>
-    <t>topic_9</t>
+    <t xml:space="preserve">qualitative methodological approaches </t>
   </si>
   <si>
-    <t>topic_10</t>
+    <t>small business</t>
   </si>
   <si>
-    <t>topic_11</t>
-  </si>
-  <si>
-    <t>topic_14</t>
-  </si>
-  <si>
-    <t>topic_15</t>
-  </si>
-  <si>
-    <t>topic_17</t>
-  </si>
-  <si>
-    <t>topic_18</t>
-  </si>
-  <si>
-    <t>topic_19</t>
-  </si>
-  <si>
-    <t>topic_21</t>
-  </si>
-  <si>
-    <t>topic_22</t>
-  </si>
-  <si>
-    <t>topic_23</t>
-  </si>
-  <si>
-    <t>topic_24</t>
-  </si>
-  <si>
-    <t>topic_25</t>
-  </si>
-  <si>
-    <t>topic_26</t>
-  </si>
-  <si>
-    <t>topic_28</t>
-  </si>
-  <si>
-    <t>topic_30</t>
-  </si>
-  <si>
-    <t>topic_31</t>
-  </si>
-  <si>
-    <t>topic_32</t>
-  </si>
-  <si>
-    <t>topic_33</t>
-  </si>
-  <si>
-    <t>topic_35</t>
-  </si>
-  <si>
-    <t>topic_29</t>
-  </si>
-  <si>
-    <t>label</t>
+    <t>supply chain</t>
   </si>
 </sst>
 </file>
@@ -578,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,233 +451,137 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -2298,10 +2058,6 @@
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="3"/>
-      <c r="B399" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
